--- a/data/trans_orig/P6601-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>106260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89621</v>
+        <v>91602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123186</v>
+        <v>123716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4301998267102355</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3628364211163473</v>
+        <v>0.3708537670080099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4987241993889459</v>
+        <v>0.500871209856216</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -765,19 +765,19 @@
         <v>158741</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>144738</v>
+        <v>144644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169976</v>
+        <v>171610</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7318178403018513</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6672644978002206</v>
+        <v>0.6668314711919727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7836130367849855</v>
+        <v>0.7911465906615961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -786,19 +786,19 @@
         <v>265000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>242263</v>
+        <v>241709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>287657</v>
+        <v>287370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5712275091443757</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.522215476881033</v>
+        <v>0.5210208607104437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6200648861228942</v>
+        <v>0.6194468217497265</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>57951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44117</v>
+        <v>45222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73115</v>
+        <v>72372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2346155147157736</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1786110341009402</v>
+        <v>0.1830828288781723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2960104895256756</v>
+        <v>0.2929996867290552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -836,19 +836,19 @@
         <v>43798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31175</v>
+        <v>32570</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56138</v>
+        <v>57181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2019159643260017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1437201432472823</v>
+        <v>0.1501504111241703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2588063302525825</v>
+        <v>0.263613151970636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -857,19 +857,19 @@
         <v>101748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84136</v>
+        <v>84244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119640</v>
+        <v>121102</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.219326169914399</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1813617024151895</v>
+        <v>0.1815949009650002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.257892782794122</v>
+        <v>0.261043904624588</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>58001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45043</v>
+        <v>45709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73405</v>
+        <v>72455</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2348196240639422</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1823569809435935</v>
+        <v>0.1850542289183046</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2971845331397459</v>
+        <v>0.2933363143678939</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -907,19 +907,19 @@
         <v>10558</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5040</v>
+        <v>5626</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18365</v>
+        <v>19052</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04867249255390985</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02323612006061543</v>
+        <v>0.02593510763386025</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08466676859695725</v>
+        <v>0.08783409163158339</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -928,19 +928,19 @@
         <v>68558</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53301</v>
+        <v>55077</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85792</v>
+        <v>86500</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1477827185554819</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1148945388942271</v>
+        <v>0.1187233785136309</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1849305387473702</v>
+        <v>0.1864563747032223</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>24790</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15884</v>
+        <v>15819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36131</v>
+        <v>35551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1003650345100486</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06430907935685319</v>
+        <v>0.06404573991928597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1462776004664106</v>
+        <v>0.1439319220180764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>3816</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9536</v>
+        <v>9583</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01759370281823727</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004401749647890996</v>
+        <v>0.004325163287818931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04396191180990707</v>
+        <v>0.04417844819980127</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -999,19 +999,19 @@
         <v>28607</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19222</v>
+        <v>19355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41302</v>
+        <v>41508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06166360238574353</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04143469271872087</v>
+        <v>0.04172059128449795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08902879452947952</v>
+        <v>0.08947434536907545</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>289942</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>263664</v>
+        <v>266116</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>315725</v>
+        <v>318466</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4515171968891232</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4105950504321121</v>
+        <v>0.4144139238212319</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4916689804426612</v>
+        <v>0.4959363126704979</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>205</v>
@@ -1124,19 +1124,19 @@
         <v>217677</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>202957</v>
+        <v>201880</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>231654</v>
+        <v>231000</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7568837501088439</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7057031958299831</v>
+        <v>0.7019574471379287</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8054829982994723</v>
+        <v>0.8032109923356817</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>478</v>
@@ -1145,19 +1145,19 @@
         <v>507618</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>477074</v>
+        <v>480474</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>539912</v>
+        <v>543212</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5459753489919932</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5131229342353554</v>
+        <v>0.5167799097236406</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5807090531044301</v>
+        <v>0.5842589926112751</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>152570</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129814</v>
+        <v>130763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174997</v>
+        <v>176890</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2375918429421962</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2021557915402454</v>
+        <v>0.2036335394496714</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2725174848269801</v>
+        <v>0.2754656115711352</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1195,19 +1195,19 @@
         <v>47352</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35769</v>
+        <v>35206</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62079</v>
+        <v>62138</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1646460254132834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1243711346507502</v>
+        <v>0.1224134477348365</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2158551959455632</v>
+        <v>0.216058348889108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>194</v>
@@ -1216,19 +1216,19 @@
         <v>199921</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>173140</v>
+        <v>175245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>225464</v>
+        <v>223778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2150277243287983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1862229210148531</v>
+        <v>0.1884868602351186</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2425007490209365</v>
+        <v>0.24068725758084</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>143939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123061</v>
+        <v>123009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>164983</v>
+        <v>165786</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2241522613078495</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1916396973900979</v>
+        <v>0.1915581392033924</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2569227595309206</v>
+        <v>0.2581738319734494</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1266,19 +1266,19 @@
         <v>14401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8589</v>
+        <v>8649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23088</v>
+        <v>22807</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0500723692190421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02986511573700801</v>
+        <v>0.03007486638827703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08027762933559306</v>
+        <v>0.07930083096311367</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>153</v>
@@ -1287,19 +1287,19 @@
         <v>158340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137979</v>
+        <v>137214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>186019</v>
+        <v>180549</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1703046321172868</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.148404829941211</v>
+        <v>0.1475823948018865</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2000753035457592</v>
+        <v>0.1941917543801652</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>55699</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41719</v>
+        <v>41083</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>70963</v>
+        <v>70748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08673869886083117</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06496816168067923</v>
+        <v>0.06397668200953312</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1105085775929664</v>
+        <v>0.1101733501906661</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1337,19 +1337,19 @@
         <v>8167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3970</v>
+        <v>3774</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15222</v>
+        <v>15324</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02839785525883057</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01380300771176174</v>
+        <v>0.01312374271544065</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05292756489551067</v>
+        <v>0.05328219288794789</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -1358,19 +1358,19 @@
         <v>63866</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49300</v>
+        <v>48351</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>79894</v>
+        <v>80961</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06869229456192173</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05302481200740369</v>
+        <v>0.05200453254406604</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08593129716590368</v>
+        <v>0.08707882809104305</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>369244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342329</v>
+        <v>342841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>395052</v>
+        <v>395935</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5238977472073205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4857098592255996</v>
+        <v>0.4864352305974521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.560514720804693</v>
+        <v>0.5617681883056079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>266</v>
@@ -1483,19 +1483,19 @@
         <v>272450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256375</v>
+        <v>255943</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>288899</v>
+        <v>288707</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7663625871960671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7211476427535061</v>
+        <v>0.7199311392408849</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8126322919458888</v>
+        <v>0.8120927250450094</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>622</v>
@@ -1504,19 +1504,19 @@
         <v>641694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>608011</v>
+        <v>607213</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>672293</v>
+        <v>675623</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6051932797874615</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.573426780638978</v>
+        <v>0.5726743053915045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6340521443682028</v>
+        <v>0.6371923699070442</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>161343</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>139581</v>
+        <v>141474</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>186323</v>
+        <v>186247</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2289194346540381</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1980434590925824</v>
+        <v>0.200729099951686</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2643621487331572</v>
+        <v>0.2642545992050697</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -1554,19 +1554,19 @@
         <v>53810</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41112</v>
+        <v>41283</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69674</v>
+        <v>69519</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1513592975554497</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1156412969992297</v>
+        <v>0.1161228250998884</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1959832919749349</v>
+        <v>0.1955481878108748</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>206</v>
@@ -1575,19 +1575,19 @@
         <v>215153</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>191596</v>
+        <v>189172</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>245520</v>
+        <v>243831</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.202914457385123</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1806979954807258</v>
+        <v>0.178411891522523</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.231554607350814</v>
+        <v>0.2299618127103878</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>137902</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116943</v>
+        <v>118997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161145</v>
+        <v>161361</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1956603907599803</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1659226574226781</v>
+        <v>0.1688380773636134</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2286384773777209</v>
+        <v>0.2289453296609807</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1625,19 +1625,19 @@
         <v>19989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12664</v>
+        <v>12458</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30395</v>
+        <v>30977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05622666884421915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03562110841294591</v>
+        <v>0.03504367892139437</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08549796320506912</v>
+        <v>0.08713337013596784</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -1646,19 +1646,19 @@
         <v>157891</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134896</v>
+        <v>136204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181756</v>
+        <v>182218</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1489099477543091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1272231643796208</v>
+        <v>0.1284567769992066</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1714170399780364</v>
+        <v>0.1718535955052478</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>36313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25092</v>
+        <v>25804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48655</v>
+        <v>50687</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05152242737866105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0356008634944143</v>
+        <v>0.03661131323097984</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06903345481917499</v>
+        <v>0.07191665043021574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1696,19 +1696,19 @@
         <v>9262</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4239</v>
+        <v>4207</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16675</v>
+        <v>17876</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02605144640426399</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0119233363453643</v>
+        <v>0.01183342695388611</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04690579712077723</v>
+        <v>0.05028138942152544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -1717,19 +1717,19 @@
         <v>45575</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32716</v>
+        <v>32761</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60676</v>
+        <v>60288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04298231507310634</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03085481295263834</v>
+        <v>0.03089785827778595</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05722512140717229</v>
+        <v>0.05685882366538793</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>176492</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>157654</v>
+        <v>158383</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>191783</v>
+        <v>194437</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5798868072435756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.517991698420275</v>
+        <v>0.5203867562535325</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6301267923758</v>
+        <v>0.63884843253691</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>125</v>
@@ -1842,19 +1842,19 @@
         <v>127409</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115776</v>
+        <v>116278</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>136441</v>
+        <v>136594</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7973900210309757</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7245829313580648</v>
+        <v>0.7277219529509453</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8539117658421256</v>
+        <v>0.8548741150220919</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>294</v>
@@ -1863,19 +1863,19 @@
         <v>303901</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>282151</v>
+        <v>281999</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>322826</v>
+        <v>325442</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6547636466917817</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6079027862507793</v>
+        <v>0.607576776793085</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6955385535724099</v>
+        <v>0.701175660574122</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>75979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61629</v>
+        <v>61353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92297</v>
+        <v>92776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2496372130186627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2024892174519508</v>
+        <v>0.2015832286633568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3032524935683132</v>
+        <v>0.3048283912175403</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -1913,19 +1913,19 @@
         <v>22478</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15078</v>
+        <v>14436</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32364</v>
+        <v>31909</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1406753618433474</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09436409883137808</v>
+        <v>0.09034692949180785</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2025485253788641</v>
+        <v>0.1997011466912296</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -1934,19 +1934,19 @@
         <v>98456</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82126</v>
+        <v>82539</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117881</v>
+        <v>118524</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2121264153878369</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1769431208683517</v>
+        <v>0.1778338293894284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.253979080204708</v>
+        <v>0.255364000017589</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>34538</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23499</v>
+        <v>23670</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46509</v>
+        <v>47177</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1134802043754455</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07720759547587695</v>
+        <v>0.07776922830852986</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1528101610363586</v>
+        <v>0.1550061917564367</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1984,19 +1984,19 @@
         <v>8095</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3831</v>
+        <v>3733</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14924</v>
+        <v>15426</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05066144503026909</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02397729493110563</v>
+        <v>0.0233613826683766</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09339968351673338</v>
+        <v>0.0965436586662925</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>41</v>
@@ -2005,19 +2005,19 @@
         <v>42633</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31114</v>
+        <v>31340</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56207</v>
+        <v>57471</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09185445422711938</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06703669412822032</v>
+        <v>0.0675238928761574</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1210999502833454</v>
+        <v>0.1238236562386214</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>17347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11186</v>
+        <v>10707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27159</v>
+        <v>26400</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05699577536231624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03675332718000042</v>
+        <v>0.03517961561418888</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0892334333361561</v>
+        <v>0.08673908131380748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5425</v>
+        <v>6376</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01127317209540793</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03395352470127802</v>
+        <v>0.03990646297910824</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -2076,19 +2076,19 @@
         <v>19148</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11904</v>
+        <v>12055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28741</v>
+        <v>28131</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0412554836932621</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02564850767624291</v>
+        <v>0.02597181592686136</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06192353834965494</v>
+        <v>0.0606094622171983</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>941938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>897033</v>
+        <v>898120</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>983306</v>
+        <v>986588</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4961983009528784</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4725431599249427</v>
+        <v>0.4731157098170026</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.517990032599682</v>
+        <v>0.5197193065298406</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>741</v>
@@ -2201,19 +2201,19 @@
         <v>776275</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>747133</v>
+        <v>746534</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>801488</v>
+        <v>801973</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7612031251532231</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.73262649896423</v>
+        <v>0.7320391758075036</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7859266418081575</v>
+        <v>0.7864020778051973</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1639</v>
@@ -2222,19 +2222,19 @@
         <v>1718213</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1668098</v>
+        <v>1660859</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1776282</v>
+        <v>1769301</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5888103080330004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.571636326378438</v>
+        <v>0.5691556648905914</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6087098943817638</v>
+        <v>0.606317607969142</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>447842</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>407184</v>
+        <v>408190</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>485800</v>
+        <v>486522</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2359159251261649</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2144980361668936</v>
+        <v>0.2150278839234583</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2559117561604911</v>
+        <v>0.2562922728159714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -2272,19 +2272,19 @@
         <v>167437</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>145507</v>
+        <v>145007</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>192539</v>
+        <v>193573</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1641858040624203</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.142681574290751</v>
+        <v>0.1421914530567079</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1888006733826848</v>
+        <v>0.1898142288727176</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>589</v>
@@ -2293,19 +2293,19 @@
         <v>615278</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>568867</v>
+        <v>574811</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>660798</v>
+        <v>665362</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2108481909826108</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1949437179259308</v>
+        <v>0.1969806943291482</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2264473178002722</v>
+        <v>0.2280111773489999</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>374381</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>340221</v>
+        <v>338334</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>410646</v>
+        <v>407374</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1972177960257941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1792233023546986</v>
+        <v>0.1782289076603548</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2163217511810823</v>
+        <v>0.2145981081132251</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -2343,19 +2343,19 @@
         <v>53042</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39463</v>
+        <v>41068</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66698</v>
+        <v>69333</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05201234349129431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03869678921403216</v>
+        <v>0.04027092945121314</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06540311303243673</v>
+        <v>0.06798717073186</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>412</v>
@@ -2364,19 +2364,19 @@
         <v>427423</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>388795</v>
+        <v>387815</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>465738</v>
+        <v>469417</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1464724239791674</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1332351575372643</v>
+        <v>0.1328994105778546</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.159602634269992</v>
+        <v>0.1608633191623049</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>134150</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>114263</v>
+        <v>112330</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>158474</v>
+        <v>157375</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07066797789516259</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06019217162063761</v>
+        <v>0.0591738967405343</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08348155650018402</v>
+        <v>0.08290288262113341</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -2414,19 +2414,19 @@
         <v>23046</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15667</v>
+        <v>14958</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34342</v>
+        <v>34763</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02259872729306231</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01536259478920252</v>
+        <v>0.01466725982517126</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03367480842899442</v>
+        <v>0.03408768273622619</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>152</v>
@@ -2435,19 +2435,19 @@
         <v>157196</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>135293</v>
+        <v>134407</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>185259</v>
+        <v>184662</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05386907700522144</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04636317092200874</v>
+        <v>0.0460597010493951</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0634858370059056</v>
+        <v>0.063281327308276</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>127890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>110994</v>
+        <v>111505</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145838</v>
+        <v>145809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4597796461681643</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3990363154626314</v>
+        <v>0.4008739608797423</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5243028519640024</v>
+        <v>0.5241969629414703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>131</v>
@@ -2800,19 +2800,19 @@
         <v>142927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126202</v>
+        <v>128318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156523</v>
+        <v>158298</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6399694516431301</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.565080042661992</v>
+        <v>0.5745550661885822</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7008467873482267</v>
+        <v>0.7087967708189392</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -2821,19 +2821,19 @@
         <v>270817</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246894</v>
+        <v>247376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292473</v>
+        <v>292167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5400255421491945</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4923216774896124</v>
+        <v>0.4932828541108884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5832087174725787</v>
+        <v>0.5825982933393767</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>84677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69650</v>
+        <v>68937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101193</v>
+        <v>101354</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3044224726839837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.250397963450411</v>
+        <v>0.2478342911421735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3637977954377681</v>
+        <v>0.3643799711699728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -2871,19 +2871,19 @@
         <v>50596</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39208</v>
+        <v>38635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64553</v>
+        <v>65446</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2265465269298346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.175557075695703</v>
+        <v>0.1729913493378538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2890425495634532</v>
+        <v>0.293038762983997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -2892,19 +2892,19 @@
         <v>135272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116628</v>
+        <v>116604</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157008</v>
+        <v>156685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2697411263895063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.232562284980321</v>
+        <v>0.2325147929528726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3130838003941382</v>
+        <v>0.3124382833491033</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>43480</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32191</v>
+        <v>32384</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57319</v>
+        <v>57322</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1563169301721586</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1157296638564746</v>
+        <v>0.1164227105011574</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.20606807217374</v>
+        <v>0.2060791406188575</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -2942,19 +2942,19 @@
         <v>15179</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8770</v>
+        <v>8018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25714</v>
+        <v>25321</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06796563993899472</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03926736341227144</v>
+        <v>0.03590091805332158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1151374200597973</v>
+        <v>0.1133753715275008</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -2963,19 +2963,19 @@
         <v>58660</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44931</v>
+        <v>45056</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75101</v>
+        <v>73282</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.116970484200079</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0895952148702036</v>
+        <v>0.08984391769781933</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1497551249722844</v>
+        <v>0.1461278445767562</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>22108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14703</v>
+        <v>13888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33891</v>
+        <v>32613</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07948095097569341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05286058821556006</v>
+        <v>0.04992908376745012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1218418317010892</v>
+        <v>0.1172488565332919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3013,19 +3013,19 @@
         <v>14632</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8021</v>
+        <v>7917</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22752</v>
+        <v>23624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06551838148804053</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03591659494949859</v>
+        <v>0.03544910504180076</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1018744913542741</v>
+        <v>0.1057772875745075</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -3034,19 +3034,19 @@
         <v>36741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25417</v>
+        <v>26061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49113</v>
+        <v>49874</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07326284726122015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05068344092733058</v>
+        <v>0.05196780979031016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09793335533103048</v>
+        <v>0.09945083959896195</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>148469</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>129767</v>
+        <v>130820</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>168372</v>
+        <v>168917</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3885886679306703</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.339640255154213</v>
+        <v>0.3423953427788889</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4406811500264811</v>
+        <v>0.4421060173108323</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -3159,19 +3159,19 @@
         <v>149099</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>133143</v>
+        <v>132661</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>165837</v>
+        <v>165319</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.583885407806251</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5214029904487686</v>
+        <v>0.5195131627401928</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6494352188813441</v>
+        <v>0.6474076330879163</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>277</v>
@@ -3180,19 +3180,19 @@
         <v>297568</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>273102</v>
+        <v>272169</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>325089</v>
+        <v>323748</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4668250076671632</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4284430287487747</v>
+        <v>0.4269787035607442</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5100008474694964</v>
+        <v>0.5078966189676519</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>116624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98651</v>
+        <v>100165</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134457</v>
+        <v>133927</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3052401616593685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2581996284927016</v>
+        <v>0.2621617834363322</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3519131197413682</v>
+        <v>0.3505284013171153</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -3230,19 +3230,19 @@
         <v>76136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59898</v>
+        <v>60786</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91092</v>
+        <v>90638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2981552956694254</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2345658002021248</v>
+        <v>0.2380443588095315</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3567247330530163</v>
+        <v>0.354949089005725</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -3251,19 +3251,19 @@
         <v>192760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171277</v>
+        <v>171927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220138</v>
+        <v>217968</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3024019474478571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2686990235386293</v>
+        <v>0.2697186981012397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3453526741431981</v>
+        <v>0.3419492904869831</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>86181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69799</v>
+        <v>69560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102846</v>
+        <v>103095</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2255623408873199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1826853596117085</v>
+        <v>0.1820589640947393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2691791449562266</v>
+        <v>0.2698310418333371</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -3301,19 +3301,19 @@
         <v>18313</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10590</v>
+        <v>10945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28868</v>
+        <v>28999</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07171663821152578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04147294707649343</v>
+        <v>0.04286100438384505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1130495170497533</v>
+        <v>0.1135637562209998</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>101</v>
@@ -3322,19 +3322,19 @@
         <v>104495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87004</v>
+        <v>85449</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124495</v>
+        <v>123085</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1639313855052127</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1364915808124409</v>
+        <v>0.1340528213166928</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1953076983417775</v>
+        <v>0.1930966871126671</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>30798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20492</v>
+        <v>20535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42776</v>
+        <v>43272</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0806088295226414</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05363382164173794</v>
+        <v>0.05374705681877154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1119572067069227</v>
+        <v>0.1132566404021017</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -3372,19 +3372,19 @@
         <v>11808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5904</v>
+        <v>6068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19850</v>
+        <v>19908</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04624265831279783</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02311895991153351</v>
+        <v>0.0237639574196694</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07773475692542885</v>
+        <v>0.07796006730043058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -3393,19 +3393,19 @@
         <v>42607</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30787</v>
+        <v>30517</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56210</v>
+        <v>57530</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06684165937976699</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04829884077075408</v>
+        <v>0.04787526909019024</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0881818490840264</v>
+        <v>0.09025380381134404</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>199237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>176602</v>
+        <v>174790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>220024</v>
+        <v>220318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4390047636478336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3891319302439838</v>
+        <v>0.3851373640011529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4848082721753533</v>
+        <v>0.4854564551024446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -3518,19 +3518,19 @@
         <v>158788</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141209</v>
+        <v>142778</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174577</v>
+        <v>174972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5698232584425876</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.506738389448112</v>
+        <v>0.5123692579081737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6264834353540953</v>
+        <v>0.6279014572779736</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>335</v>
@@ -3539,19 +3539,19 @@
         <v>358025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>330723</v>
+        <v>332777</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>385530</v>
+        <v>384353</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4887716027500547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4514990316679578</v>
+        <v>0.4543028243824768</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5263214338146966</v>
+        <v>0.5247141007162892</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>137193</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>118616</v>
+        <v>117943</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>157274</v>
+        <v>158875</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3022966197511008</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2613627718395342</v>
+        <v>0.259879413474074</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3465423263170768</v>
+        <v>0.3500704378790945</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>82</v>
@@ -3589,19 +3589,19 @@
         <v>86223</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>71146</v>
+        <v>71475</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>104168</v>
+        <v>101864</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3094188482207886</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2553125959243674</v>
+        <v>0.2564933204694298</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3738134674449206</v>
+        <v>0.365548208200863</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>212</v>
@@ -3610,19 +3610,19 @@
         <v>223417</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>196853</v>
+        <v>198636</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>248909</v>
+        <v>250059</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.30500610512514</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2687416734333441</v>
+        <v>0.2711753526633719</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3398079275319507</v>
+        <v>0.3413777884218464</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>84535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69483</v>
+        <v>67839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103570</v>
+        <v>102167</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1862679724254709</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1531014351058073</v>
+        <v>0.1494780343242843</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2282106402606298</v>
+        <v>0.2251178815305977</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3660,19 +3660,19 @@
         <v>25313</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17091</v>
+        <v>16454</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36847</v>
+        <v>35390</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09083806740673839</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06133130190152056</v>
+        <v>0.05904517697023647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1322300586893856</v>
+        <v>0.127000656594866</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -3681,19 +3681,19 @@
         <v>109849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92564</v>
+        <v>90621</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>131338</v>
+        <v>129794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1499638952683474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1263667309104952</v>
+        <v>0.1237152027155183</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1793014708864757</v>
+        <v>0.1771931408384293</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>32872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22991</v>
+        <v>22169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48352</v>
+        <v>47641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07243064417559474</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05065974446787561</v>
+        <v>0.04884762354493612</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1065406872839463</v>
+        <v>0.1049746906055446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -3731,19 +3731,19 @@
         <v>8338</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4052</v>
+        <v>4002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16629</v>
+        <v>15549</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02991982592988544</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01454142129112842</v>
+        <v>0.01436001012882872</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05967599585130746</v>
+        <v>0.05579705989952891</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -3752,19 +3752,19 @@
         <v>41209</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29029</v>
+        <v>28719</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55652</v>
+        <v>55719</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05625839685645787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03963044012935121</v>
+        <v>0.03920625362748311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07597518639682457</v>
+        <v>0.07606667121755434</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>153683</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>133804</v>
+        <v>135199</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172048</v>
+        <v>172351</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5185522974972837</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4514781159419937</v>
+        <v>0.4561831849640114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5805211585865304</v>
+        <v>0.5815417799701852</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -3877,19 +3877,19 @@
         <v>110376</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97033</v>
+        <v>95955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124801</v>
+        <v>124425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5917133780123376</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5201848731542174</v>
+        <v>0.514404549081951</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6690467967863666</v>
+        <v>0.6670284855540806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>237</v>
@@ -3898,19 +3898,19 @@
         <v>264059</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>241429</v>
+        <v>242036</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>285847</v>
+        <v>287691</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5468128423489365</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4999505388069651</v>
+        <v>0.5012087424782961</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5919318227347694</v>
+        <v>0.5957500852463106</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>87806</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72196</v>
+        <v>72242</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105627</v>
+        <v>104726</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2962737438406197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2436015364894689</v>
+        <v>0.2437578777995179</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3564048876347879</v>
+        <v>0.3533650011955833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -3948,19 +3948,19 @@
         <v>58824</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45963</v>
+        <v>45661</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71850</v>
+        <v>72802</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3153491821779136</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2464003897357995</v>
+        <v>0.2447849131531989</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3851827557309578</v>
+        <v>0.3902838579344829</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -3969,19 +3969,19 @@
         <v>146630</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126611</v>
+        <v>125400</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>167351</v>
+        <v>167258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.303642173569936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2621865137090417</v>
+        <v>0.2596789260352414</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3465497732794247</v>
+        <v>0.3463584661012315</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>36245</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25845</v>
+        <v>25782</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49307</v>
+        <v>49505</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1222965371852308</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08720470256499727</v>
+        <v>0.08699246935825172</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1663709135317873</v>
+        <v>0.1670396041662101</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -4019,19 +4019,19 @@
         <v>11501</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6365</v>
+        <v>6244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20165</v>
+        <v>18988</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06165384769428357</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03411973739032329</v>
+        <v>0.03347388153722708</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1081048629703996</v>
+        <v>0.1017904363559736</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -4040,19 +4040,19 @@
         <v>47746</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34317</v>
+        <v>35186</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>61744</v>
+        <v>62037</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09887157634240767</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07106404412530536</v>
+        <v>0.07286420666342414</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1278593122251557</v>
+        <v>0.1284665691310736</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>18635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10197</v>
+        <v>10536</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30275</v>
+        <v>29079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06287742147686583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03440507810268206</v>
+        <v>0.03554940447246273</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1021535508572791</v>
+        <v>0.09811789919773507</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4090,19 +4090,19 @@
         <v>5836</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2841</v>
+        <v>1966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12731</v>
+        <v>11831</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03128359211546526</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01523272318791307</v>
+        <v>0.01053903344005507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06824992497188642</v>
+        <v>0.0634224590296153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -4111,19 +4111,19 @@
         <v>24470</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15453</v>
+        <v>15614</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36878</v>
+        <v>37294</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0506734077387198</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03200007861589448</v>
+        <v>0.03233420479898122</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07636736798154922</v>
+        <v>0.07722849681544276</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>629279</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>591633</v>
+        <v>591144</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>671546</v>
+        <v>669208</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4461595995785362</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4194681894211104</v>
+        <v>0.419121507753262</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4761266944585976</v>
+        <v>0.4744691660179243</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>513</v>
@@ -4236,19 +4236,19 @@
         <v>561189</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>529661</v>
+        <v>528753</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>589819</v>
+        <v>592259</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5945509537794975</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5611482470756201</v>
+        <v>0.5601869583796079</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6248830020469893</v>
+        <v>0.6274682591134</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1097</v>
@@ -4257,19 +4257,19 @@
         <v>1190469</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1139106</v>
+        <v>1143397</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1242594</v>
+        <v>1241103</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.505652176332045</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4838357139593752</v>
+        <v>0.4856584729789857</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5277924656402713</v>
+        <v>0.5271592100931226</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>426301</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>393151</v>
+        <v>393596</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>467491</v>
+        <v>465387</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3022476799509956</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2787447346130423</v>
+        <v>0.2790602369497319</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3314519347550116</v>
+        <v>0.3299599747797197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>252</v>
@@ -4307,19 +4307,19 @@
         <v>271778</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>242376</v>
+        <v>243939</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>301390</v>
+        <v>301466</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2879351483347127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2567852297778183</v>
+        <v>0.2584411257135523</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3193073289165535</v>
+        <v>0.3193878247373393</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>659</v>
@@ -4328,19 +4328,19 @@
         <v>698079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>650769</v>
+        <v>653778</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>748749</v>
+        <v>744097</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2965095465516225</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2764144840806998</v>
+        <v>0.2776923828093723</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.318031742021244</v>
+        <v>0.3160554441072246</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>250442</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>223287</v>
+        <v>218466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>279241</v>
+        <v>280183</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1775636538801218</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1583106324880433</v>
+        <v>0.1548926676903222</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1979824180440116</v>
+        <v>0.19865009920471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>66</v>
@@ -4378,19 +4378,19 @@
         <v>70306</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56283</v>
+        <v>56381</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88831</v>
+        <v>89003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07448564212119446</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05962923098788076</v>
+        <v>0.05973242919585203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09411174589328909</v>
+        <v>0.0942945838233476</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>307</v>
@@ -4399,19 +4399,19 @@
         <v>320748</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>288094</v>
+        <v>287993</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>359429</v>
+        <v>357087</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1362379542853718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1223682709490432</v>
+        <v>0.1223250099909906</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1526677269857305</v>
+        <v>0.1516728936260965</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>104413</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>83698</v>
+        <v>84143</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>129356</v>
+        <v>126843</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0740290665903463</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05934230521051579</v>
+        <v>0.05965726734519931</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09171385358091269</v>
+        <v>0.08993180007837902</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>40</v>
@@ -4449,19 +4449,19 @@
         <v>40614</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>29983</v>
+        <v>30336</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53536</v>
+        <v>57101</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0430282557645954</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03176517331716522</v>
+        <v>0.03213929037278163</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05671838611787956</v>
+        <v>0.06049611025223255</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>133</v>
@@ -4470,19 +4470,19 @@
         <v>145027</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>120677</v>
+        <v>120905</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>173072</v>
+        <v>168980</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0616003228309606</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05125773495176755</v>
+        <v>0.0513543361293587</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07351236148333257</v>
+        <v>0.07177454456161765</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>92528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75871</v>
+        <v>76465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108606</v>
+        <v>110228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3226882030441663</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2645979364386326</v>
+        <v>0.2666694505253801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.378760123770281</v>
+        <v>0.3844174265588562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>119</v>
@@ -4835,19 +4835,19 @@
         <v>122581</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107074</v>
+        <v>106115</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>140394</v>
+        <v>140800</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4455343531712077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3891722254686844</v>
+        <v>0.385686995202578</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5102754111623103</v>
+        <v>0.5117526384652428</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>205</v>
@@ -4856,19 +4856,19 @@
         <v>215109</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192664</v>
+        <v>192876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>239471</v>
+        <v>240295</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.382842282901432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3428957247726913</v>
+        <v>0.3432731333820297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4262018580108957</v>
+        <v>0.427667666807412</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>108288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91367</v>
+        <v>90614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125016</v>
+        <v>125342</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3776518639940099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3186396333401139</v>
+        <v>0.3160135934726949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4359902674656915</v>
+        <v>0.4371255823951847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -4906,19 +4906,19 @@
         <v>101262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85182</v>
+        <v>85692</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117853</v>
+        <v>119398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3680469410921972</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3096012652423077</v>
+        <v>0.3114570432862671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4283484811460877</v>
+        <v>0.4339649143374458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -4927,19 +4927,19 @@
         <v>209550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186902</v>
+        <v>187281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>233107</v>
+        <v>233551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3729486209647329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.332640519283208</v>
+        <v>0.3333146985084747</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4148746063226218</v>
+        <v>0.4156643929319702</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>61541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48034</v>
+        <v>49106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76037</v>
+        <v>77753</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2146230632092309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1675177297418628</v>
+        <v>0.1712543654603555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2651776379897002</v>
+        <v>0.2711618555021936</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -4977,19 +4977,19 @@
         <v>27772</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18777</v>
+        <v>18927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39052</v>
+        <v>37917</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1009417328692412</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06824674429019284</v>
+        <v>0.06879118606927893</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1419384757836958</v>
+        <v>0.1378129200652688</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -4998,19 +4998,19 @@
         <v>89313</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72757</v>
+        <v>72842</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105996</v>
+        <v>108729</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1589567210692452</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1294897027768443</v>
+        <v>0.1296419723931762</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1886478812742626</v>
+        <v>0.1935121979574722</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>24384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14903</v>
+        <v>15425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35496</v>
+        <v>35947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08503686975259284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05197425173338294</v>
+        <v>0.05379390192926063</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1237913047731811</v>
+        <v>0.1253625907212346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -5048,19 +5048,19 @@
         <v>23518</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14425</v>
+        <v>15059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34086</v>
+        <v>35034</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0854769728673539</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05242823043623608</v>
+        <v>0.05473470387140827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1238904304547652</v>
+        <v>0.1273362907456416</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -5069,19 +5069,19 @@
         <v>47901</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34502</v>
+        <v>35426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60726</v>
+        <v>63105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08525237506458991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06140592728232439</v>
+        <v>0.06304921945119545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1080785124217928</v>
+        <v>0.1123117974809842</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>135061</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>117106</v>
+        <v>115433</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154911</v>
+        <v>154007</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3481592574353781</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3018746320649445</v>
+        <v>0.2975621852609631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3993293673601718</v>
+        <v>0.3969999693484532</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>137</v>
@@ -5194,19 +5194,19 @@
         <v>142746</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>125905</v>
+        <v>126632</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>158807</v>
+        <v>157790</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5302085957480587</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4676559461904398</v>
+        <v>0.4703565042491824</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5898655552783535</v>
+        <v>0.5860880644347458</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>266</v>
@@ -5215,19 +5215,19 @@
         <v>277806</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>252611</v>
+        <v>253174</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>305881</v>
+        <v>303858</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.422742128137736</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3844022842909458</v>
+        <v>0.385259142381433</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4654638414565814</v>
+        <v>0.4623849678872289</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>138536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120660</v>
+        <v>120932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157890</v>
+        <v>157293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3571176336447692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3110361386921322</v>
+        <v>0.3117391497017986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.407007604574367</v>
+        <v>0.4054690523476089</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -5265,19 +5265,19 @@
         <v>88579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73511</v>
+        <v>72667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104901</v>
+        <v>103860</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3290136791155825</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2730457408169463</v>
+        <v>0.2699107660459226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3896375425162626</v>
+        <v>0.3857740553131597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -5286,19 +5286,19 @@
         <v>227115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>203627</v>
+        <v>202126</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255570</v>
+        <v>252646</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3456038669576574</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3098629401289616</v>
+        <v>0.3075775572451643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3889052375432547</v>
+        <v>0.3844554149169891</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>77025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60421</v>
+        <v>62158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93646</v>
+        <v>93595</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1985554974129627</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1557526328215269</v>
+        <v>0.1602309077284731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2413993730798343</v>
+        <v>0.2412684710062787</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -5336,19 +5336,19 @@
         <v>26570</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17914</v>
+        <v>17695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37849</v>
+        <v>38625</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09868961036542938</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06653883399436528</v>
+        <v>0.06572369303378672</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1405856539994317</v>
+        <v>0.1434653752267964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -5357,19 +5357,19 @@
         <v>103595</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85666</v>
+        <v>86191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123542</v>
+        <v>120943</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1576419483153572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1303589546146288</v>
+        <v>0.1311586740473831</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1879962466356435</v>
+        <v>0.184040865509209</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>37306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26509</v>
+        <v>26986</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51349</v>
+        <v>52292</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09616761150688999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06833580855906382</v>
+        <v>0.06956520134084264</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1323662100308074</v>
+        <v>0.1347986166821452</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -5407,19 +5407,19 @@
         <v>11331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5967</v>
+        <v>5905</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19687</v>
+        <v>19171</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04208811477092943</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02216309338056456</v>
+        <v>0.02193268705555604</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07312351817100432</v>
+        <v>0.07120751662618784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -5428,19 +5428,19 @@
         <v>48637</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37193</v>
+        <v>36754</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>63557</v>
+        <v>61774</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07401205658924936</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05659786511364434</v>
+        <v>0.05592842523558831</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09671508884803622</v>
+        <v>0.09400196074021568</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>219113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197400</v>
+        <v>194677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>244775</v>
+        <v>240631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4826309858714041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4348056466286182</v>
+        <v>0.4288065970200455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5391556024701725</v>
+        <v>0.530026716725398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -5553,19 +5553,19 @@
         <v>164147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>148169</v>
+        <v>148008</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>180780</v>
+        <v>180553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5666188224524097</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.511463058198159</v>
+        <v>0.5109076006652631</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6240335183510406</v>
+        <v>0.6232502930043395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>370</v>
@@ -5574,19 +5574,19 @@
         <v>383260</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>356869</v>
+        <v>355108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>412298</v>
+        <v>409302</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5153473853598103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4798602537911969</v>
+        <v>0.4774925204988921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5543931158468232</v>
+        <v>0.5503644627928099</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>144979</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>123434</v>
+        <v>125094</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>167345</v>
+        <v>167909</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3193395914764297</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2718828373982505</v>
+        <v>0.2755400162165296</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3686028080469632</v>
+        <v>0.3698465278386993</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -5624,19 +5624,19 @@
         <v>76103</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>61349</v>
+        <v>61798</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>90198</v>
+        <v>91465</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2626984729123594</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2117703829927031</v>
+        <v>0.2133213125636616</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3113526683074889</v>
+        <v>0.3157260797474221</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>212</v>
@@ -5645,19 +5645,19 @@
         <v>221082</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>197189</v>
+        <v>194793</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>246906</v>
+        <v>247297</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2972757601188377</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2651489905342803</v>
+        <v>0.2619272643634599</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.332000082570482</v>
+        <v>0.3325250271983776</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>65551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50682</v>
+        <v>51159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82064</v>
+        <v>82777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1443862405352444</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1116346163878725</v>
+        <v>0.1126856163074833</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1807579810014542</v>
+        <v>0.182330450457104</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -5695,19 +5695,19 @@
         <v>44580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32920</v>
+        <v>33092</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57183</v>
+        <v>57449</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1538845492424673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1136371126248469</v>
+        <v>0.114231632550156</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1973910979839402</v>
+        <v>0.1983066919740888</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -5716,19 +5716,19 @@
         <v>110131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91317</v>
+        <v>91116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132733</v>
+        <v>130524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1480861865605239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1227885211894949</v>
+        <v>0.1225183480132339</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.178477964064455</v>
+        <v>0.1755077771875979</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>24354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16673</v>
+        <v>15252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36883</v>
+        <v>36250</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05364318211692188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03672543076434674</v>
+        <v>0.03359402881716938</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08124172314436116</v>
+        <v>0.07984669040387567</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5766,19 +5766,19 @@
         <v>4866</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1839</v>
+        <v>1901</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10670</v>
+        <v>11798</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01679815539276361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006348757731053502</v>
+        <v>0.006562538504521446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03683040822941138</v>
+        <v>0.04072541426181578</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -5787,19 +5787,19 @@
         <v>29220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18745</v>
+        <v>19168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41558</v>
+        <v>41265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03929066796082822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02520484688473003</v>
+        <v>0.02577443089080719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05588036529021271</v>
+        <v>0.05548601572163316</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>138570</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121270</v>
+        <v>121073</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156424</v>
+        <v>154370</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5091992920390586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4456272715259756</v>
+        <v>0.4449008647501635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5748049748494818</v>
+        <v>0.5672560712122552</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -5912,19 +5912,19 @@
         <v>127631</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113230</v>
+        <v>114139</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>141581</v>
+        <v>140497</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.657677933696219</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5834681886497273</v>
+        <v>0.5881566906138689</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7295624822751069</v>
+        <v>0.7239767895136306</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>245</v>
@@ -5933,19 +5933,19 @@
         <v>266201</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>243507</v>
+        <v>246170</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288479</v>
+        <v>289044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.571006226098523</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5223257853088111</v>
+        <v>0.5280375284978148</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6187917693252675</v>
+        <v>0.6200033336180089</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>84195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69005</v>
+        <v>68922</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100099</v>
+        <v>100372</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3093895252668793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2535695116122726</v>
+        <v>0.253263146500019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3678306712212918</v>
+        <v>0.3688347277967404</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -5983,19 +5983,19 @@
         <v>41195</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30333</v>
+        <v>30473</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54856</v>
+        <v>52802</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2122788573630975</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1563039632275722</v>
+        <v>0.1570286160318618</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2826734528246809</v>
+        <v>0.2720845723352739</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>119</v>
@@ -6004,19 +6004,19 @@
         <v>125391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107335</v>
+        <v>105625</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>149246</v>
+        <v>145622</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2689654441962929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.23023535670999</v>
+        <v>0.2265678631385127</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3201344651847155</v>
+        <v>0.3123623132249676</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>31353</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21404</v>
+        <v>22096</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43207</v>
+        <v>44047</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1152104148689222</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07865268723308698</v>
+        <v>0.08119456968090676</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.15876940451046</v>
+        <v>0.1618569582464307</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -6054,19 +6054,19 @@
         <v>14525</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8698</v>
+        <v>8333</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24171</v>
+        <v>22984</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07484883282403172</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04481796587302232</v>
+        <v>0.04294042074005041</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.12455035963029</v>
+        <v>0.1184339772603167</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>41</v>
@@ -6075,19 +6075,19 @@
         <v>45878</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>32959</v>
+        <v>33696</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60147</v>
+        <v>61730</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09840917253438937</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07069771753786892</v>
+        <v>0.07227944243693722</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1290153838307231</v>
+        <v>0.1324118779018792</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>18015</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10728</v>
+        <v>11166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28291</v>
+        <v>28512</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06620076782513999</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03942190213858515</v>
+        <v>0.04103211613768688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.103959427555832</v>
+        <v>0.1047717811217443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -6125,19 +6125,19 @@
         <v>10711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4919</v>
+        <v>5311</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20001</v>
+        <v>19231</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0551943761166518</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02534576591770767</v>
+        <v>0.02736727091153381</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1030666204297589</v>
+        <v>0.09909711618784889</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -6146,19 +6146,19 @@
         <v>28727</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19491</v>
+        <v>19058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40978</v>
+        <v>41500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06161915717079468</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04180933741032191</v>
+        <v>0.04088070227815715</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08789808249861018</v>
+        <v>0.08901783494603896</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>585272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>547883</v>
+        <v>547233</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>621925</v>
+        <v>624586</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4178127918580319</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3911216538995202</v>
+        <v>0.3906577782549857</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4439788166389463</v>
+        <v>0.4458781862789973</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>542</v>
@@ -6271,19 +6271,19 @@
         <v>557105</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>526945</v>
+        <v>526161</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>590373</v>
+        <v>590420</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5418690741641732</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5125337514987618</v>
+        <v>0.5117710787778389</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5742273321271718</v>
+        <v>0.5742726058282267</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1086</v>
@@ -6292,19 +6292,19 @@
         <v>1142377</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1094240</v>
+        <v>1095070</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1197346</v>
+        <v>1192529</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4703236261175245</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4505051691087881</v>
+        <v>0.450847025041049</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4929546522922974</v>
+        <v>0.4909714024799395</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>475998</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>439884</v>
+        <v>438217</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>511337</v>
+        <v>513433</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3398049809635793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3140235113987808</v>
+        <v>0.3128334202796086</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3650326080472987</v>
+        <v>0.3665283424869399</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>302</v>
@@ -6342,19 +6342,19 @@
         <v>307139</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>276962</v>
+        <v>277415</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>337204</v>
+        <v>335885</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2987390786909366</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2693870931817952</v>
+        <v>0.2698275059568305</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3279817563198114</v>
+        <v>0.3266986535190681</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>746</v>
@@ -6363,19 +6363,19 @@
         <v>783138</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>733975</v>
+        <v>739599</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>827688</v>
+        <v>827992</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3224225094928176</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3021819999043445</v>
+        <v>0.3044974912222146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3407640483222978</v>
+        <v>0.3408894405682891</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>235470</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>208259</v>
+        <v>205581</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>263238</v>
+        <v>263209</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1680968311199851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1486712845154043</v>
+        <v>0.1467600447327721</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1879200881814958</v>
+        <v>0.1878992018775218</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>113</v>
@@ -6413,19 +6413,19 @@
         <v>113447</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95390</v>
+        <v>95656</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136966</v>
+        <v>134922</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1103446793695541</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09278090400558484</v>
+        <v>0.09304013681537995</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1332196493706145</v>
+        <v>0.131232412421419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>332</v>
@@ -6434,19 +6434,19 @@
         <v>348917</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>310494</v>
+        <v>315877</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>382029</v>
+        <v>386651</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1436513648177451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1278320750597838</v>
+        <v>0.1300485423637581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1572836565428223</v>
+        <v>0.1591865927492265</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>104059</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>85492</v>
+        <v>84111</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>124864</v>
+        <v>124762</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07428539605840369</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06103075910954034</v>
+        <v>0.06004481629123168</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08913739006486369</v>
+        <v>0.08906465996254223</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>47</v>
@@ -6484,19 +6484,19 @@
         <v>50426</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>37813</v>
+        <v>37921</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>66805</v>
+        <v>66009</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04904716777533612</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03677873325395802</v>
+        <v>0.03688408386313512</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06497762977351793</v>
+        <v>0.0642033386238013</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>143</v>
@@ -6505,19 +6505,19 @@
         <v>154485</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>131661</v>
+        <v>130827</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>180026</v>
+        <v>181372</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06360249957191279</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05420575310779017</v>
+        <v>0.05386243737572893</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07411799136461254</v>
+        <v>0.07467207955675774</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>37586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26701</v>
+        <v>26866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50624</v>
+        <v>48778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3944978032060979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2802455681202207</v>
+        <v>0.2819768766645361</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5313428464685469</v>
+        <v>0.5119639993908986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -6870,19 +6870,19 @@
         <v>40291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32067</v>
+        <v>30839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48552</v>
+        <v>48566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.512386310001596</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4077955660005776</v>
+        <v>0.3921869817302765</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6174459101189214</v>
+        <v>0.6176266489402462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -6891,19 +6891,19 @@
         <v>77877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64547</v>
+        <v>62480</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94299</v>
+        <v>92682</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4478016014777421</v>
+        <v>0.4478016014777422</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3711493494922524</v>
+        <v>0.3592657265138956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5422266231183448</v>
+        <v>0.5329333852137168</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>41847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30574</v>
+        <v>29936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53453</v>
+        <v>53191</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4392210320149304</v>
+        <v>0.4392210320149303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3208962716254519</v>
+        <v>0.314205543349206</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5610362503434567</v>
+        <v>0.5582811465377254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -6941,19 +6941,19 @@
         <v>28240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20151</v>
+        <v>21013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36827</v>
+        <v>37701</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3591333517424936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2562629090622547</v>
+        <v>0.2672312477138652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4683382594822322</v>
+        <v>0.4794533611192077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -6962,19 +6962,19 @@
         <v>70087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56093</v>
+        <v>55927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84569</v>
+        <v>83691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4030090409623052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3225396672749808</v>
+        <v>0.3215854513832795</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4862795687055855</v>
+        <v>0.4812293454847705</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>14754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8387</v>
+        <v>7636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24187</v>
+        <v>26099</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1548604368337396</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08802517525970793</v>
+        <v>0.08014706177391168</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2538609999614313</v>
+        <v>0.2739281429043017</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -7012,19 +7012,19 @@
         <v>4594</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1602</v>
+        <v>1569</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10627</v>
+        <v>10639</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.05841853573426972</v>
+        <v>0.05841853573426973</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02037629107511066</v>
+        <v>0.01994724429866094</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.135145711301902</v>
+        <v>0.1352975914586746</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -7033,19 +7033,19 @@
         <v>19348</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11965</v>
+        <v>11581</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31689</v>
+        <v>29726</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1112538140943605</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06880033464698218</v>
+        <v>0.06658982534876383</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1822152542105321</v>
+        <v>0.1709264857434327</v>
       </c>
     </row>
     <row r="7">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5397</v>
+        <v>5496</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0114207279452321</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05664251921960698</v>
+        <v>0.05768797016668899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -7083,19 +7083,19 @@
         <v>5509</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2219</v>
+        <v>2211</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12197</v>
+        <v>11854</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07006180252164089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02821810381128143</v>
+        <v>0.02812026417256868</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1551094417557418</v>
+        <v>0.1507488289530813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -7104,19 +7104,19 @@
         <v>6597</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2638</v>
+        <v>2893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15878</v>
+        <v>14235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03793554346559213</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01517043724742478</v>
+        <v>0.01663718295224532</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09130139899374057</v>
+        <v>0.08185019766015188</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>83445</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>67020</v>
+        <v>67237</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>100127</v>
+        <v>101943</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3590834050282478</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2884020005274018</v>
+        <v>0.2893356414496429</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4308708281360757</v>
+        <v>0.4386844995842401</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>94</v>
@@ -7229,19 +7229,19 @@
         <v>76656</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64912</v>
+        <v>63985</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>88639</v>
+        <v>88237</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4671304412168735</v>
+        <v>0.4671304412168733</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3955657171792911</v>
+        <v>0.3899168658514662</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.540157945855966</v>
+        <v>0.5377071099753155</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>162</v>
@@ -7250,19 +7250,19 @@
         <v>160101</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139465</v>
+        <v>140727</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>180844</v>
+        <v>180879</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4038025309876045</v>
+        <v>0.4038025309876044</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3517540521685876</v>
+        <v>0.354938305798698</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4561193020180818</v>
+        <v>0.4562090563274959</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>107363</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91083</v>
+        <v>90767</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125137</v>
+        <v>125887</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4620057622328863</v>
+        <v>0.4620057622328864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3919508666160241</v>
+        <v>0.3905925995697236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5384920731210801</v>
+        <v>0.5417209874761448</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -7300,19 +7300,19 @@
         <v>70795</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59467</v>
+        <v>60483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81238</v>
+        <v>82359</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4314174930662936</v>
+        <v>0.4314174930662935</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.362382796797788</v>
+        <v>0.3685769793138621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4950519797297185</v>
+        <v>0.5018857343161589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -7321,19 +7321,19 @@
         <v>178158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>157426</v>
+        <v>156935</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200789</v>
+        <v>198876</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4493457142575624</v>
+        <v>0.4493457142575623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3970557641493234</v>
+        <v>0.3958188661458382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5064264816068406</v>
+        <v>0.5015996898433183</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>29620</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19000</v>
+        <v>18274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>46380</v>
+        <v>43393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1274602124586303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08176264685081384</v>
+        <v>0.07863600349919221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1995840004312573</v>
+        <v>0.1867283693750287</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -7371,19 +7371,19 @@
         <v>12118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6738</v>
+        <v>7012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20186</v>
+        <v>20698</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07384559080016423</v>
+        <v>0.07384559080016422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04106126199022685</v>
+        <v>0.042728602323265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1230096919615439</v>
+        <v>0.1261304187646964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -7392,19 +7392,19 @@
         <v>41738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28308</v>
+        <v>29154</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56935</v>
+        <v>58323</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1052698858769503</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07139671476582969</v>
+        <v>0.07353261200661072</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1436004239350608</v>
+        <v>0.1471010511844818</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>11956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5388</v>
+        <v>5275</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25396</v>
+        <v>22125</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05145062028023558</v>
+        <v>0.05145062028023557</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02318443421622236</v>
+        <v>0.02269739829547203</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1092846253048942</v>
+        <v>0.09520994437994039</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -7442,19 +7442,19 @@
         <v>4530</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1679</v>
+        <v>1700</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9821</v>
+        <v>10132</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02760647491666888</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01023293432007354</v>
+        <v>0.01035998765577959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05984938904325515</v>
+        <v>0.06174606271591751</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -7463,19 +7463,19 @@
         <v>16487</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9343</v>
+        <v>9210</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28951</v>
+        <v>27818</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0415818688778829</v>
+        <v>0.04158186887788289</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02356347072510407</v>
+        <v>0.02323013742420815</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0730189733830595</v>
+        <v>0.07016293757109271</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>127961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109932</v>
+        <v>109673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149758</v>
+        <v>149194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.397242611661118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3412750724534052</v>
+        <v>0.3404709294569056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4649103045710861</v>
+        <v>0.4631612766541306</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>184</v>
@@ -7588,19 +7588,19 @@
         <v>140692</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126659</v>
+        <v>127639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154926</v>
+        <v>153791</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5711442478326495</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5141761291529868</v>
+        <v>0.5181553058046916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6289309367762642</v>
+        <v>0.624322115524505</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>292</v>
@@ -7609,19 +7609,19 @@
         <v>268652</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>245250</v>
+        <v>244412</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>295325</v>
+        <v>291455</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4726006217381398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4314331336152067</v>
+        <v>0.4299590661139205</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5195230200086758</v>
+        <v>0.5127145817152273</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>145502</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>125002</v>
+        <v>125007</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>165859</v>
+        <v>166440</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4516995108184846</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3880578624522449</v>
+        <v>0.388074993062017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5148964121265464</v>
+        <v>0.5166982091128811</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>123</v>
@@ -7659,19 +7659,19 @@
         <v>81598</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>68254</v>
+        <v>68864</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>94686</v>
+        <v>94083</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3312493779391912</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2770804618977426</v>
+        <v>0.2795584665209693</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3843836513142292</v>
+        <v>0.381934310788936</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>257</v>
@@ -7680,19 +7680,19 @@
         <v>227100</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>202714</v>
+        <v>205335</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>250928</v>
+        <v>250670</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3995040138287768</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3566045032723729</v>
+        <v>0.361216461844579</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.44142151219871</v>
+        <v>0.4409674970574146</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>38265</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26295</v>
+        <v>27658</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51064</v>
+        <v>50874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1187891408639898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08162937943577842</v>
+        <v>0.08586303537890592</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1585233455105764</v>
+        <v>0.1579333649958632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -7730,19 +7730,19 @@
         <v>16271</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10111</v>
+        <v>10355</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23420</v>
+        <v>24300</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06605292888687835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04104798443623017</v>
+        <v>0.0420352672583743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09507564164640402</v>
+        <v>0.09864739471269506</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -7751,19 +7751,19 @@
         <v>54536</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41525</v>
+        <v>42383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69543</v>
+        <v>68957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0959365899559857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0730484423046657</v>
+        <v>0.0745586481356975</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1223364166298104</v>
+        <v>0.1213068356002238</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>10394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5913</v>
+        <v>5592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20158</v>
+        <v>18939</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03226873665640757</v>
+        <v>0.03226873665640758</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01835720292327182</v>
+        <v>0.01736030687385147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06257999842217446</v>
+        <v>0.05879448731838208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -7801,19 +7801,19 @@
         <v>7773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3652</v>
+        <v>3664</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13869</v>
+        <v>14857</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03155344534128095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01482672168118216</v>
+        <v>0.01487548514434224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05630175818548111</v>
+        <v>0.06031308221162916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -7822,19 +7822,19 @@
         <v>18167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11275</v>
+        <v>11579</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27981</v>
+        <v>28929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03195877447709748</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01983504810989469</v>
+        <v>0.02036930609414764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04922356051442027</v>
+        <v>0.05089009868693099</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>163179</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144195</v>
+        <v>143360</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>183551</v>
+        <v>184042</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5126125822258006</v>
+        <v>0.5126125822258008</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.452975263080735</v>
+        <v>0.4503501229310434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5766073114490404</v>
+        <v>0.5781489646574003</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>162</v>
@@ -7947,19 +7947,19 @@
         <v>118718</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106447</v>
+        <v>105026</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131477</v>
+        <v>132086</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5497207881798336</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4928972261671166</v>
+        <v>0.486319490814234</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6088014658137985</v>
+        <v>0.6116210025567751</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -7968,19 +7968,19 @@
         <v>281898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>258828</v>
+        <v>259376</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>307203</v>
+        <v>305967</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.527611817035849</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4844342999049927</v>
+        <v>0.4854588426433272</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5749741504277789</v>
+        <v>0.5726610082628081</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>101435</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84368</v>
+        <v>83599</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121232</v>
+        <v>120295</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.318648133956008</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2650353760814605</v>
+        <v>0.262618536851883</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3808386092044489</v>
+        <v>0.3778946750185733</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>107</v>
@@ -8018,19 +8018,19 @@
         <v>67296</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56495</v>
+        <v>56203</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78447</v>
+        <v>79755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.311609766279647</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2615986920065467</v>
+        <v>0.2602437527010958</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3632440727426252</v>
+        <v>0.3693038537960666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>203</v>
@@ -8039,19 +8039,19 @@
         <v>168730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147738</v>
+        <v>148316</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193720</v>
+        <v>192221</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3158032071603563</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2765122974901333</v>
+        <v>0.2775937447247782</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3625751665621557</v>
+        <v>0.3597686156598405</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>26319</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16595</v>
+        <v>16589</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39629</v>
+        <v>38619</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08267749375359806</v>
+        <v>0.08267749375359808</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05213194435973423</v>
+        <v>0.05211216403451235</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1244896362940909</v>
+        <v>0.1213166755664964</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -8089,19 +8089,19 @@
         <v>13657</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8169</v>
+        <v>7993</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21429</v>
+        <v>22407</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06323845743304493</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03782625183030675</v>
+        <v>0.03701116396566523</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09922727501484617</v>
+        <v>0.1037542240079302</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>38</v>
@@ -8110,19 +8110,19 @@
         <v>39976</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>28208</v>
+        <v>29092</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56671</v>
+        <v>54698</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07482018395494566</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05279498681260991</v>
+        <v>0.05444930868077964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1060683913067867</v>
+        <v>0.1023749295052925</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>27396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17146</v>
+        <v>16391</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44753</v>
+        <v>42717</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08606179006459319</v>
+        <v>0.0860617900645932</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05386113504087719</v>
+        <v>0.05149228395504526</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1405858016644561</v>
+        <v>0.1341898285424956</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -8160,19 +8160,19 @@
         <v>16290</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9904</v>
+        <v>10391</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24902</v>
+        <v>25898</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07543098810747448</v>
+        <v>0.07543098810747446</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04586220557880722</v>
+        <v>0.04811692844270152</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.115308091948282</v>
+        <v>0.1199216010066329</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -8181,19 +8181,19 @@
         <v>43686</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31233</v>
+        <v>30540</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59832</v>
+        <v>59441</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08176479184884908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05845648368169312</v>
+        <v>0.05716021667546568</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1119842112437816</v>
+        <v>0.1112522370864489</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>412171</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>376470</v>
+        <v>379777</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>445288</v>
+        <v>448795</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4257480477862338</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3888705631950071</v>
+        <v>0.3922866973431769</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4599558812383229</v>
+        <v>0.4635780198248843</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>488</v>
@@ -8306,19 +8306,19 @@
         <v>376357</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>353144</v>
+        <v>351249</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>402397</v>
+        <v>400722</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5338186461209391</v>
+        <v>0.5338186461209389</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5008940584278773</v>
+        <v>0.4982057759183089</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5707545574717432</v>
+        <v>0.5683780825747052</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>826</v>
@@ -8327,19 +8327,19 @@
         <v>788528</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>745812</v>
+        <v>748739</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>834682</v>
+        <v>829518</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4712868320234888</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4457561374422851</v>
+        <v>0.4475058256193616</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4988723287056466</v>
+        <v>0.4957855142870282</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>396147</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>361178</v>
+        <v>361589</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>428762</v>
+        <v>430352</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4091962000921457</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3730745104697661</v>
+        <v>0.3735000301272994</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4428849374325424</v>
+        <v>0.4445277857998382</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>351</v>
@@ -8377,19 +8377,19 @@
         <v>247928</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224396</v>
+        <v>225698</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>271117</v>
+        <v>269871</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3516580916056435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3182804138328104</v>
+        <v>0.320126072051171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3845477157357324</v>
+        <v>0.3827804825741607</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>705</v>
@@ -8398,19 +8398,19 @@
         <v>644076</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>603370</v>
+        <v>603444</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>691299</v>
+        <v>687214</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3849507943281143</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3606216963753241</v>
+        <v>0.3606657072860684</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4131751263775864</v>
+        <v>0.4107337519058402</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>108957</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88941</v>
+        <v>88415</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>134008</v>
+        <v>132567</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1125464495155918</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09187073339603881</v>
+        <v>0.09132779903215241</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1384219055501412</v>
+        <v>0.1369341658143112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -8448,19 +8448,19 @@
         <v>46640</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35760</v>
+        <v>34937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60275</v>
+        <v>59370</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06615310069024975</v>
+        <v>0.06615310069024972</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05072111392638982</v>
+        <v>0.04955362195783582</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08549298445328751</v>
+        <v>0.08421010678841598</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>147</v>
@@ -8469,19 +8469,19 @@
         <v>155597</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>128295</v>
+        <v>128979</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>180437</v>
+        <v>181100</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09299722211465035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07667934140168192</v>
+        <v>0.07708825773460316</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1078432469678009</v>
+        <v>0.1082396351118104</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>50835</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>36877</v>
+        <v>35683</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>71878</v>
+        <v>71946</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05250930260602876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03809203075909437</v>
+        <v>0.03685828734834252</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07424577045476882</v>
+        <v>0.07431617464245888</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>40</v>
@@ -8519,19 +8519,19 @@
         <v>34102</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>25039</v>
+        <v>25502</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46892</v>
+        <v>46557</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.04837016158316768</v>
+        <v>0.04837016158316767</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03551521801629249</v>
+        <v>0.03617140352299961</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06651060359057344</v>
+        <v>0.06603644226020762</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>77</v>
@@ -8540,19 +8540,19 @@
         <v>84937</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>66011</v>
+        <v>67065</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>104978</v>
+        <v>109474</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.05076515153374668</v>
+        <v>0.05076515153374669</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03945330569736252</v>
+        <v>0.04008361203538609</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06274305772536361</v>
+        <v>0.06543013477711269</v>
       </c>
     </row>
     <row r="28">
